--- a/test-main/src/main/resources/rule4/发送到流立方的数据.xlsx
+++ b/test-main/src/main/resources/rule4/发送到流立方的数据.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>merchantUserId</t>
   </si>
@@ -111,7 +111,13 @@
     <t>dataDisposeSehedule</t>
   </si>
   <si>
-    <t>successed</t>
+    <t>SUCCESSED</t>
+  </si>
+  <si>
+    <t>bizCode</t>
+  </si>
+  <si>
+    <t>PAY.CZ</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,10 +503,10 @@
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +531,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -548,8 +557,11 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -571,8 +583,11 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -594,8 +609,11 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -617,8 +635,11 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -640,8 +661,11 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -663,8 +687,11 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -685,6 +712,9 @@
       </c>
       <c r="G8" t="s">
         <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
